--- a/teaching/traditional_assets/database/data/india/india_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/india/india_insurance_life.xlsx
@@ -591,49 +591,49 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.11395</v>
+        <v>0.147</v>
       </c>
       <c r="E2">
-        <v>0.02419999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="F2">
-        <v>0.04100000000000001</v>
+        <v>0.0756</v>
       </c>
       <c r="G2">
-        <v>0.03551317319941658</v>
+        <v>0.03194954318363741</v>
       </c>
       <c r="H2">
-        <v>0.03551317319941658</v>
+        <v>0.03194954318363741</v>
       </c>
       <c r="I2">
-        <v>0.03317709304446784</v>
+        <v>0.03380516673339871</v>
       </c>
       <c r="J2">
-        <v>0.02879716188150047</v>
+        <v>0.02812453553219106</v>
       </c>
       <c r="K2">
-        <v>582.1999999999999</v>
+        <v>579.1</v>
       </c>
       <c r="L2">
-        <v>0.0268725882982848</v>
+        <v>0.02664072060135987</v>
       </c>
       <c r="M2">
-        <v>144.5</v>
+        <v>15.6</v>
       </c>
       <c r="N2">
-        <v>0.003358481269203773</v>
+        <v>0.0003538682793381756</v>
       </c>
       <c r="O2">
-        <v>0.2481964960494676</v>
+        <v>0.02693835261612847</v>
       </c>
       <c r="P2">
-        <v>144.5</v>
+        <v>15.6</v>
       </c>
       <c r="Q2">
-        <v>0.003358481269203773</v>
+        <v>0.0003538682793381756</v>
       </c>
       <c r="R2">
-        <v>0.2481964960494676</v>
+        <v>0.02693835261612847</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,73 +642,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>415.6</v>
+        <v>387.2</v>
       </c>
       <c r="V2">
-        <v>0.009659410487758395</v>
+        <v>0.008783192164086</v>
       </c>
       <c r="W2">
-        <v>0.2224621421575124</v>
+        <v>0.1665668440972659</v>
       </c>
       <c r="X2">
-        <v>0.08847904189271891</v>
+        <v>0.0755802358550296</v>
       </c>
       <c r="Y2">
-        <v>0.1339831002647935</v>
+        <v>0.09098660824223626</v>
       </c>
       <c r="Z2">
-        <v>8.421901391278677</v>
+        <v>7.164851877854451</v>
       </c>
       <c r="AA2">
-        <v>0.2467873362542254</v>
+        <v>0.2251038003229546</v>
       </c>
       <c r="AB2">
-        <v>0.08840222669103606</v>
+        <v>0.07539144086193472</v>
       </c>
       <c r="AC2">
-        <v>0.1584388361767258</v>
+        <v>0.1497240164994088</v>
       </c>
       <c r="AD2">
-        <v>43</v>
+        <v>128.9</v>
       </c>
       <c r="AE2">
-        <v>44.88321886497705</v>
+        <v>43.47784324709436</v>
       </c>
       <c r="AF2">
-        <v>87.88321886497704</v>
+        <v>172.3778432470943</v>
       </c>
       <c r="AG2">
-        <v>-327.716781135023</v>
+        <v>-214.8221567529057</v>
       </c>
       <c r="AH2">
-        <v>0.002038425568724077</v>
+        <v>0.00389496548643326</v>
       </c>
       <c r="AI2">
-        <v>0.02466770505994509</v>
+        <v>0.04266168106009507</v>
       </c>
       <c r="AJ2">
-        <v>-0.007675282507839417</v>
+        <v>-0.004896858978043923</v>
       </c>
       <c r="AK2">
-        <v>-0.1041334970650115</v>
+        <v>-0.05880096884859121</v>
       </c>
       <c r="AL2">
-        <v>6.35</v>
+        <v>11.38</v>
       </c>
       <c r="AM2">
-        <v>4.289999999999999</v>
+        <v>11.38</v>
       </c>
       <c r="AN2">
-        <v>0.05716830748572455</v>
+        <v>0.1647848720072817</v>
       </c>
       <c r="AO2">
-        <v>112.8346456692913</v>
+        <v>64.4639718804921</v>
       </c>
       <c r="AP2">
-        <v>-0.4356979933060206</v>
+        <v>-0.2746271652820464</v>
       </c>
       <c r="AQ2">
-        <v>167.0163170163171</v>
+        <v>64.4639718804921</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HDFC Life Insurance Company Limited (BSE:540777)</t>
+          <t>SBI Life Insurance Company Limited (BSE:540719)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,119 +727,122 @@
           <t>Insurance (Life)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.229</v>
+      </c>
+      <c r="E3">
+        <v>0.151</v>
+      </c>
       <c r="F3">
-        <v>0.144</v>
+        <v>0.116</v>
       </c>
       <c r="G3">
-        <v>0.03872103256086829</v>
+        <v>0.03224118762670852</v>
       </c>
       <c r="H3">
-        <v>0.03872103256086829</v>
+        <v>0.03224118762670852</v>
       </c>
       <c r="I3">
-        <v>0.03841164244536735</v>
+        <v>0.03396987340376408</v>
       </c>
       <c r="J3">
-        <v>0.03322371256529727</v>
+        <v>0.02882571364355038</v>
       </c>
       <c r="K3">
-        <v>190.2</v>
+        <v>219.1</v>
       </c>
       <c r="L3">
-        <v>0.03281969872137767</v>
+        <v>0.02865738015826303</v>
       </c>
       <c r="M3">
-        <v>46.5</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.002619319878103049</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.2444794952681388</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>46.5</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.002619319878103049</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.2444794952681388</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>74.3</v>
+        <v>293.3</v>
       </c>
       <c r="V3">
-        <v>0.004185278858990463</v>
+        <v>0.02368474179351556</v>
       </c>
       <c r="W3">
-        <v>0.2550623575164275</v>
+        <v>0.1917892156862745</v>
       </c>
       <c r="X3">
-        <v>0.08841116458872236</v>
+        <v>0.07555574871048525</v>
       </c>
       <c r="Y3">
-        <v>0.1666511929277051</v>
+        <v>0.1162334669757892</v>
       </c>
       <c r="Z3">
-        <v>8.574006545269533</v>
+        <v>8.168996546750016</v>
       </c>
       <c r="AA3">
-        <v>0.2848603289930125</v>
+        <v>0.2354771552117679</v>
       </c>
       <c r="AB3">
-        <v>0.08840495926757444</v>
+        <v>0.07539252931112668</v>
       </c>
       <c r="AC3">
-        <v>0.1964553697254381</v>
+        <v>0.1600846259006412</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.915042681812865</v>
+        <v>41.81666445760872</v>
       </c>
       <c r="AF3">
-        <v>1.915042681812865</v>
+        <v>41.81666445760872</v>
       </c>
       <c r="AG3">
-        <v>-72.38495731818713</v>
+        <v>-251.4833355423913</v>
       </c>
       <c r="AH3">
-        <v>0.0001078616842555658</v>
+        <v>0.003365440542632167</v>
       </c>
       <c r="AI3">
-        <v>0.002127080622921097</v>
+        <v>0.03083559516196468</v>
       </c>
       <c r="AJ3">
-        <v>-0.004094098840628324</v>
+        <v>-0.02072889796460187</v>
       </c>
       <c r="AK3">
-        <v>-0.08763152434025388</v>
+        <v>-0.2366196767066423</v>
       </c>
       <c r="AL3">
-        <v>1.97</v>
+        <v>1.15</v>
       </c>
       <c r="AM3">
-        <v>1.97</v>
+        <v>1.15</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>112.6395939086295</v>
+        <v>225.5652173913043</v>
       </c>
       <c r="AP3">
-        <v>-0.3221547791098275</v>
+        <v>-0.9195675571975694</v>
       </c>
       <c r="AQ3">
-        <v>112.6395939086295</v>
+        <v>225.5652173913043</v>
       </c>
     </row>
     <row r="4">
@@ -859,112 +862,112 @@
         </is>
       </c>
       <c r="G4">
-        <v>0.02925587558407141</v>
+        <v>0.03042897998093422</v>
       </c>
       <c r="H4">
-        <v>0.02925587558407141</v>
+        <v>0.03042897998093422</v>
       </c>
       <c r="I4">
-        <v>0.02378246337630031</v>
+        <v>0.03412774070543375</v>
       </c>
       <c r="J4">
-        <v>0.02179175289128581</v>
+        <v>0.02575402971922176</v>
       </c>
       <c r="K4">
-        <v>34.8</v>
+        <v>32.1</v>
       </c>
       <c r="L4">
-        <v>0.01213473742938838</v>
+        <v>0.01224022878932316</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.01383467562626612</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.8045977011494253</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>28</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.01383467562626612</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.8045977011494253</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>37.1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.01833094520480261</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.2492836676217765</v>
+        <v>0.1074656846334115</v>
       </c>
       <c r="X4">
-        <v>0.08950659598222792</v>
+        <v>0.07608567994203019</v>
       </c>
       <c r="Y4">
-        <v>0.1597770716395486</v>
+        <v>0.03138000469138126</v>
       </c>
       <c r="Z4">
-        <v>11.87577154599023</v>
+        <v>8.779241821663385</v>
       </c>
       <c r="AA4">
-        <v>0.2587938789235824</v>
+        <v>0.2261008547873534</v>
       </c>
       <c r="AB4">
-        <v>0.08829750604050152</v>
+        <v>0.07536921523434872</v>
       </c>
       <c r="AC4">
-        <v>0.1704963728830809</v>
+        <v>0.1507316395530046</v>
       </c>
       <c r="AD4">
-        <v>43</v>
+        <v>47.3</v>
       </c>
       <c r="AE4">
-        <v>2.983257647229811</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>45.98325764722981</v>
+        <v>47.3</v>
       </c>
       <c r="AG4">
-        <v>8.883257647229811</v>
+        <v>47.3</v>
       </c>
       <c r="AH4">
-        <v>0.02221538701631777</v>
+        <v>0.01461319822046465</v>
       </c>
       <c r="AI4">
-        <v>0.102052743564722</v>
+        <v>0.1124851367419738</v>
       </c>
       <c r="AJ4">
-        <v>0.004369997447495416</v>
+        <v>0.01461319822046465</v>
       </c>
       <c r="AK4">
-        <v>0.02148395970801002</v>
+        <v>0.1124851367419738</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>5.33</v>
       </c>
       <c r="AM4">
-        <v>-2.06</v>
+        <v>5.33</v>
       </c>
       <c r="AN4">
-        <v>0.5555555555555556</v>
+        <v>0.4145486415425066</v>
+      </c>
+      <c r="AO4">
+        <v>16.79174484052533</v>
       </c>
       <c r="AP4">
-        <v>0.1147707706360441</v>
+        <v>0.4145486415425066</v>
       </c>
       <c r="AQ4">
-        <v>-32.76699029126213</v>
+        <v>16.79174484052533</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +978,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SBI Life Insurance Company Limited (BSE:540719)</t>
+          <t>HDFC Life Insurance Company Limited (BSE:540777)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -984,121 +987,121 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.177</v>
+        <v>0.147</v>
       </c>
       <c r="E5">
-        <v>0.08869999999999999</v>
+        <v>0.125</v>
+      </c>
+      <c r="F5">
+        <v>0.0756</v>
       </c>
       <c r="G5">
-        <v>0.03445567880632178</v>
+        <v>0.03426054467239104</v>
       </c>
       <c r="H5">
-        <v>0.03445567880632178</v>
+        <v>0.03426054467239104</v>
       </c>
       <c r="I5">
-        <v>0.03123788501384965</v>
+        <v>0.03653906587694316</v>
       </c>
       <c r="J5">
-        <v>0.0244703830140152</v>
+        <v>0.03170659189321804</v>
       </c>
       <c r="K5">
-        <v>173.2</v>
+        <v>182.4</v>
       </c>
       <c r="L5">
-        <v>0.02428865921552679</v>
+        <v>0.03126124736490308</v>
       </c>
       <c r="M5">
-        <v>28.3</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.002094078124653146</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.1633949191685913</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>28.3</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.002094078124653146</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.1633949191685913</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>248.3</v>
+        <v>46.2</v>
       </c>
       <c r="V5">
-        <v>0.01837313068379421</v>
+        <v>0.002469003847798204</v>
       </c>
       <c r="W5">
-        <v>0.1772048291385308</v>
+        <v>0.2030276046304542</v>
       </c>
       <c r="X5">
-        <v>0.08854691919671545</v>
+        <v>0.07560472299957396</v>
       </c>
       <c r="Y5">
-        <v>0.08865790994181533</v>
+        <v>0.1274228816308802</v>
       </c>
       <c r="Z5">
-        <v>9.594487893810234</v>
+        <v>7.068143640707459</v>
       </c>
       <c r="AA5">
-        <v>0.2347807935848684</v>
+        <v>0.2241067458585558</v>
       </c>
       <c r="AB5">
-        <v>0.08839949411449768</v>
+        <v>0.07539035241274275</v>
       </c>
       <c r="AC5">
-        <v>0.1463812994703707</v>
+        <v>0.148716393445813</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="AE5">
-        <v>39.32882877369754</v>
+        <v>1.392561638998828</v>
       </c>
       <c r="AF5">
-        <v>39.32882877369754</v>
+        <v>82.99256163899882</v>
       </c>
       <c r="AG5">
-        <v>-208.9711712263025</v>
+        <v>36.79256163899882</v>
       </c>
       <c r="AH5">
-        <v>0.002901719478270229</v>
+        <v>0.004415674088022173</v>
       </c>
       <c r="AI5">
-        <v>0.03328075597047913</v>
+        <v>0.07231253770650797</v>
       </c>
       <c r="AJ5">
-        <v>-0.01570582538136057</v>
+        <v>0.001962396325952121</v>
       </c>
       <c r="AK5">
-        <v>-0.2238747773634125</v>
+        <v>0.03340246037091001</v>
       </c>
       <c r="AL5">
-        <v>1.09</v>
+        <v>2.32</v>
       </c>
       <c r="AM5">
-        <v>1.09</v>
+        <v>2.32</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>0.3785260677357554</v>
       </c>
       <c r="AO5">
-        <v>203.8532110091743</v>
+        <v>91.5948275862069</v>
       </c>
       <c r="AP5">
-        <v>-0.8790643245259232</v>
+        <v>0.1706733294011718</v>
       </c>
       <c r="AQ5">
-        <v>203.8532110091743</v>
+        <v>91.5948275862069</v>
       </c>
     </row>
     <row r="6">
@@ -1118,49 +1121,49 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0509</v>
+        <v>0.106</v>
       </c>
       <c r="E6">
-        <v>-0.0403</v>
+        <v>-0.08529999999999999</v>
       </c>
       <c r="F6">
-        <v>-0.062</v>
+        <v>-0.083</v>
       </c>
       <c r="G6">
-        <v>0.0366875596130263</v>
+        <v>0.0298684934424193</v>
       </c>
       <c r="H6">
-        <v>0.0366875596130263</v>
+        <v>0.0298684934424193</v>
       </c>
       <c r="I6">
-        <v>0.03495431633184914</v>
+        <v>0.03060061344346685</v>
       </c>
       <c r="J6">
-        <v>0.03171557238390057</v>
+        <v>0.0262213737103912</v>
       </c>
       <c r="K6">
-        <v>184</v>
+        <v>145.5</v>
       </c>
       <c r="L6">
-        <v>0.03133941953944679</v>
+        <v>0.02582213782455144</v>
       </c>
       <c r="M6">
-        <v>41.7</v>
+        <v>15.6</v>
       </c>
       <c r="N6">
-        <v>0.00428373311418152</v>
+        <v>0.001591966691158462</v>
       </c>
       <c r="O6">
-        <v>0.2266304347826087</v>
+        <v>0.1072164948453608</v>
       </c>
       <c r="P6">
-        <v>41.7</v>
+        <v>15.6</v>
       </c>
       <c r="Q6">
-        <v>0.00428373311418152</v>
+        <v>0.001591966691158462</v>
       </c>
       <c r="R6">
-        <v>0.2266304347826087</v>
+        <v>0.1072164948453608</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1169,73 +1172,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>55.9</v>
+        <v>47.7</v>
       </c>
       <c r="V6">
-        <v>0.005742462376085058</v>
+        <v>0.004867744305657604</v>
       </c>
       <c r="W6">
-        <v>0.1956406166932483</v>
+        <v>0.1413444725082572</v>
       </c>
       <c r="X6">
-        <v>0.08840920381554118</v>
+        <v>0.07540077346463257</v>
       </c>
       <c r="Y6">
-        <v>0.1072314128777071</v>
+        <v>0.06594369904362464</v>
       </c>
       <c r="Z6">
-        <v>6.4387353069396</v>
+        <v>5.78648757082424</v>
       </c>
       <c r="AA6">
-        <v>0.2042081756880192</v>
+        <v>0.1517296530651162</v>
       </c>
       <c r="AB6">
-        <v>0.08840560980901983</v>
+        <v>0.07539944829622185</v>
       </c>
       <c r="AC6">
-        <v>0.1158025658789993</v>
+        <v>0.07633020476889431</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.6560897622368227</v>
+        <v>0.268617150486815</v>
       </c>
       <c r="AF6">
-        <v>0.6560897622368227</v>
+        <v>0.268617150486815</v>
       </c>
       <c r="AG6">
-        <v>-55.24391023776317</v>
+        <v>-47.43138284951318</v>
       </c>
       <c r="AH6">
-        <v>6.739386160708662e-05</v>
+        <v>2.741139963616967e-05</v>
       </c>
       <c r="AI6">
-        <v>0.0006369456661221865</v>
+        <v>0.0002406384506020759</v>
       </c>
       <c r="AJ6">
-        <v>-0.005707454139600122</v>
+        <v>-0.004863874924810599</v>
       </c>
       <c r="AK6">
-        <v>-0.05670950561038591</v>
+        <v>-0.0443877745315006</v>
       </c>
       <c r="AL6">
-        <v>3.29</v>
+        <v>2.58</v>
       </c>
       <c r="AM6">
-        <v>3.29</v>
+        <v>2.58</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>62.27963525835867</v>
+        <v>66.74418604651162</v>
       </c>
       <c r="AP6">
-        <v>-0.2601488556321404</v>
+        <v>-0.2648628976569736</v>
       </c>
       <c r="AQ6">
-        <v>62.27963525835867</v>
+        <v>66.74418604651162</v>
       </c>
     </row>
   </sheetData>
